--- a/data/raw/signals.xlsx
+++ b/data/raw/signals.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29607"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zxu567\Documents\R\sia.project.1.wi.data\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CE182C-3DC2-46F6-8461-FCE0722D448C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="392" documentId="13_ncr:1_{F2CE182C-3DC2-46F6-8461-FCE0722D448C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB29AD44-C134-4B92-A0C0-34C15004558C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7A7D6C86-A6AC-403C-91E2-C0E7310CD44B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="76">
   <si>
     <t>device_id</t>
   </si>
@@ -47,6 +47,15 @@
     <t>available</t>
   </si>
   <si>
+    <t>sampling_rate_min</t>
+  </si>
+  <si>
+    <t>sampling_rate_max</t>
+  </si>
+  <si>
+    <t>additional_info</t>
+  </si>
+  <si>
     <t>recording_location</t>
   </si>
   <si>
@@ -56,9 +65,21 @@
     <t>ppg</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>reflection</t>
+  </si>
+  <si>
+    <t>wrist</t>
+  </si>
+  <si>
     <t>ecg</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
     <t>icg</t>
   </si>
   <si>
@@ -71,6 +92,9 @@
     <t>eda</t>
   </si>
   <si>
+    <t>dry electrode</t>
+  </si>
+  <si>
     <t>eeg</t>
   </si>
   <si>
@@ -80,6 +104,9 @@
     <t>accelerometer</t>
   </si>
   <si>
+    <t>3 axes</t>
+  </si>
+  <si>
     <t>gyroscope</t>
   </si>
   <si>
@@ -89,22 +116,13 @@
     <t>skin_temperature</t>
   </si>
   <si>
-    <t>reflection</t>
-  </si>
-  <si>
-    <t>wrist</t>
-  </si>
-  <si>
-    <t>dry electrode</t>
-  </si>
-  <si>
     <t>0.2(36-39)</t>
   </si>
   <si>
     <t>other_signals</t>
   </si>
   <si>
-    <t>additional_info</t>
+    <t>If other signals are available, make available column yes and the list of signals goes here as text</t>
   </si>
   <si>
     <t>002_sia_wd_emp</t>
@@ -113,32 +131,146 @@
     <t xml:space="preserve"> transmission &amp; reflection; green, red and infrared</t>
   </si>
   <si>
-    <t>3 axes</t>
-  </si>
-  <si>
-    <t>sampling_rate_min</t>
-  </si>
-  <si>
-    <t>sampling_rate_max</t>
-  </si>
-  <si>
     <t>0.1(30-45)</t>
   </si>
   <si>
-    <t>If other signals are available, make available column yes and the list of signals goes here as text</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>no</t>
+    <t>003_sia_wd_vri</t>
+  </si>
+  <si>
+    <t>spot electrodes; 2 channels; lead I; lead II</t>
+  </si>
+  <si>
+    <t>spot electrodes</t>
+  </si>
+  <si>
+    <t>thorax</t>
+  </si>
+  <si>
+    <t>spot electrodes; impedence-derived</t>
+  </si>
+  <si>
+    <t>wrist-thenar</t>
+  </si>
+  <si>
+    <t>hip</t>
+  </si>
+  <si>
+    <t>004_sia_wd_vri</t>
+  </si>
+  <si>
+    <t>spot electrodes; 3 channels; lead I; lead II; aVF</t>
+  </si>
+  <si>
+    <t>upper sternum</t>
+  </si>
+  <si>
+    <t>005_sia_wd_fit</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>Manually Initiated Recording; 1 channel; lead I</t>
+  </si>
+  <si>
+    <t>dry electrode; only the scan function, no continuous EDA</t>
+  </si>
+  <si>
+    <t>ambient light</t>
+  </si>
+  <si>
+    <t>006_sia_wd_bit</t>
+  </si>
+  <si>
+    <t>sternum</t>
+  </si>
+  <si>
+    <t>007_sia_wd_bit</t>
+  </si>
+  <si>
+    <t>spot electrodes; 1 channel; aVF</t>
+  </si>
+  <si>
+    <t>008_sia_wd_bit</t>
+  </si>
+  <si>
+    <t>009_sia_wd_our</t>
+  </si>
+  <si>
+    <t>transmission &amp; reflection; green, red and infrared</t>
+  </si>
+  <si>
+    <t>finger</t>
+  </si>
+  <si>
+    <t>010_sia_wd_min</t>
+  </si>
+  <si>
+    <t>spot electrodes; 1 channel</t>
+  </si>
+  <si>
+    <t>facial muscles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thenar-hyperthenar </t>
+  </si>
+  <si>
+    <t>EOG</t>
+  </si>
+  <si>
+    <t>011_sia_wd_nov</t>
+  </si>
+  <si>
+    <t>auscultatory and oscillometry</t>
+  </si>
+  <si>
+    <t>upper arm</t>
+  </si>
+  <si>
+    <t>012_sia_wd_car</t>
+  </si>
+  <si>
+    <t>touch; 1 channel; lead I</t>
+  </si>
+  <si>
+    <t>Respiratory Inductance Plethysmography; 2 belts</t>
+  </si>
+  <si>
+    <t>rib cage and abdomen</t>
+  </si>
+  <si>
+    <t>near abdomen</t>
+  </si>
+  <si>
+    <t>013_sia_wd_app</t>
+  </si>
+  <si>
+    <t>reflection; green and infrared</t>
+  </si>
+  <si>
+    <t>Microphone; Altimeter; Ambient Light Sensor</t>
+  </si>
+  <si>
+    <t>014_sia_wd_app</t>
+  </si>
+  <si>
+    <t>Manually Initiated Recording; 1 Channel; Lead I</t>
+  </si>
+  <si>
+    <t>Barometer;Altimeter; Ambient light sensor; Water temperature;Depth gauge;Microphone</t>
+  </si>
+  <si>
+    <t>015_sia_wd_app</t>
+  </si>
+  <si>
+    <t>Barometer;Altimeter; Ambient light sensor;Microphone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +294,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -171,7 +321,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -188,11 +338,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -212,6 +380,22 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,23 +730,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA1BD5DC-A81B-4D9C-8626-3C643AFB0E7B}">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:I196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F204" sqref="F204"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="10" customWidth="1"/>
     <col min="6" max="6" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,210 +758,210 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1">
       <c r="A2" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="9">
         <v>64</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E7" s="10">
         <v>4</v>
       </c>
       <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="C8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E10" s="10">
         <v>32</v>
       </c>
       <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E13" s="10">
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F14" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1">
+      <c r="A15" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="B15" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D15" s="6">
         <v>26</v>
@@ -785,65 +970,65 @@
         <v>208</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D20" s="7">
         <v>1</v>
@@ -852,43 +1037,43 @@
         <v>4</v>
       </c>
       <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="C21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D23" s="7">
         <v>26</v>
@@ -897,21 +1082,21 @@
         <v>208</v>
       </c>
       <c r="F23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D24" s="7">
         <v>26</v>
@@ -920,32 +1105,32 @@
         <v>208</v>
       </c>
       <c r="F24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D26" s="7">
         <v>1</v>
@@ -954,102 +1139,2582 @@
         <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="11" customFormat="1">
+      <c r="A27" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="14"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="10">
+        <v>1000</v>
+      </c>
+      <c r="F29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="10">
+        <v>1000</v>
+      </c>
+      <c r="F30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="10">
+        <v>250</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="10">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="7"/>
+      <c r="I34" s="10"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="10">
+        <v>1000</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C37" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="11" customFormat="1">
+      <c r="A40" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="14"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="10">
+        <v>1000</v>
+      </c>
+      <c r="F42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="10">
+        <v>1000</v>
+      </c>
+      <c r="F43" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="10">
+        <v>250</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="4"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="2"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="2"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="2"/>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="2"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="2"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="2"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="2"/>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="10">
+        <v>1000</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="10">
+        <v>1000</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="11" customFormat="1">
+      <c r="A53" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="13"/>
+      <c r="E53" s="14"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>45</v>
+      </c>
+      <c r="G59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="11" customFormat="1">
+      <c r="A66" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="13"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="10">
+        <v>1000</v>
+      </c>
+      <c r="F68" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="10">
+        <v>1000</v>
+      </c>
+      <c r="F75" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G75" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" s="11" customFormat="1">
+      <c r="A79" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="13"/>
+      <c r="E79" s="14"/>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="10">
+        <v>1000</v>
+      </c>
+      <c r="F81" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="10">
+        <v>100</v>
+      </c>
+      <c r="F88" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G88" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" s="11" customFormat="1">
+      <c r="A92" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" s="13"/>
+      <c r="E92" s="14"/>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" s="10">
+        <v>250</v>
+      </c>
+      <c r="F94" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C101" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101" s="10">
+        <v>100</v>
+      </c>
+      <c r="F101" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G101" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C102" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C103" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C104" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" s="11" customFormat="1">
+      <c r="A105" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C105" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105" s="13"/>
+      <c r="E105" s="14"/>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" s="10">
+        <v>125</v>
+      </c>
+      <c r="F106" t="s">
+        <v>53</v>
+      </c>
+      <c r="G106" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C113" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C114" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" s="10">
+        <v>50</v>
+      </c>
+      <c r="F114" t="s">
+        <v>22</v>
+      </c>
+      <c r="G114" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C115" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C116" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C117" t="s">
+        <v>9</v>
+      </c>
+      <c r="E117" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F117">
+        <v>0.1</v>
+      </c>
+      <c r="G117" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" s="11" customFormat="1">
+      <c r="A118" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B118" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C118" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D118" s="13"/>
+      <c r="E118" s="14"/>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" s="10">
+        <v>500</v>
+      </c>
+      <c r="F120" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121" t="s">
+        <v>9</v>
+      </c>
+      <c r="E121" s="10">
+        <v>500</v>
+      </c>
+      <c r="F121" t="s">
+        <v>34</v>
+      </c>
+      <c r="G121" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C122" t="s">
+        <v>9</v>
+      </c>
+      <c r="E122" s="10">
+        <v>500</v>
+      </c>
+      <c r="G122" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C123" t="s">
+        <v>9</v>
+      </c>
+      <c r="E123" s="10">
+        <v>500</v>
+      </c>
+      <c r="F123" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G123" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C124" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" s="10">
+        <v>500</v>
+      </c>
+      <c r="F124" t="s">
+        <v>34</v>
+      </c>
+      <c r="G124" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C125" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C126" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C127" t="s">
+        <v>9</v>
+      </c>
+      <c r="E127" s="10">
+        <v>50</v>
+      </c>
+      <c r="F127" t="s">
+        <v>22</v>
+      </c>
+      <c r="G127" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C128" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C129" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C130" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" s="11" customFormat="1">
+      <c r="A131" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B131" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="13"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C134" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C135" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C136" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C137" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C138" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C139" t="s">
+        <v>9</v>
+      </c>
+      <c r="F139" t="s">
+        <v>61</v>
+      </c>
+      <c r="G139" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C140" t="s">
+        <v>9</v>
+      </c>
+      <c r="E140" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F140" t="s">
+        <v>22</v>
+      </c>
+      <c r="G140" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C141" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C142" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C143" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" s="11" customFormat="1">
+      <c r="A144" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B144" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C144" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D144" s="13"/>
+      <c r="E144" s="14"/>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146" t="s">
+        <v>9</v>
+      </c>
+      <c r="E146" s="10">
+        <v>256</v>
+      </c>
+      <c r="F146" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C147" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C148" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C149" t="s">
+        <v>9</v>
+      </c>
+      <c r="E149" s="10">
+        <v>128</v>
+      </c>
+      <c r="F149" t="s">
+        <v>65</v>
+      </c>
+      <c r="G149" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C150" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C151" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C152" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C153" t="s">
+        <v>9</v>
+      </c>
+      <c r="E153" s="10">
+        <v>64</v>
+      </c>
+      <c r="F153" t="s">
+        <v>22</v>
+      </c>
+      <c r="G153" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C154" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C155" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C156" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" s="11" customFormat="1">
+      <c r="A157" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B157" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C157" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D157" s="13"/>
+      <c r="E157" s="14"/>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" t="s">
+        <v>68</v>
+      </c>
+      <c r="B158" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158" t="s">
+        <v>9</v>
+      </c>
+      <c r="E158" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F158" t="s">
+        <v>69</v>
+      </c>
+      <c r="G158" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" t="s">
+        <v>68</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C159" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" t="s">
+        <v>68</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C160" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" t="s">
+        <v>68</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C161" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" t="s">
+        <v>68</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C162" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" t="s">
+        <v>68</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C163" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" t="s">
+        <v>68</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C164" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" t="s">
+        <v>68</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C165" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" t="s">
+        <v>68</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C166" t="s">
+        <v>9</v>
+      </c>
+      <c r="E166" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F166" t="s">
+        <v>22</v>
+      </c>
+      <c r="G166" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" t="s">
+        <v>68</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C167" t="s">
+        <v>9</v>
+      </c>
+      <c r="E167" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F167" t="s">
+        <v>22</v>
+      </c>
+      <c r="G167" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" t="s">
+        <v>68</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C168" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" t="s">
+        <v>68</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C169" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" s="11" customFormat="1">
+      <c r="A170" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B170" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C170" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="13"/>
+      <c r="E170" s="14"/>
+      <c r="F170" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" t="s">
+        <v>71</v>
+      </c>
+      <c r="B171" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171" t="s">
+        <v>9</v>
+      </c>
+      <c r="E171" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F171" t="s">
+        <v>69</v>
+      </c>
+      <c r="G171" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" t="s">
+        <v>71</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C172" t="s">
+        <v>9</v>
+      </c>
+      <c r="E172" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F172" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" t="s">
+        <v>71</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C173" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" t="s">
+        <v>71</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C174" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" t="s">
+        <v>71</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C175" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" t="s">
+        <v>71</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C176" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" t="s">
+        <v>71</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C177" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" t="s">
+        <v>71</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C178" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" t="s">
+        <v>71</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C179" t="s">
+        <v>9</v>
+      </c>
+      <c r="E179" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F179" t="s">
+        <v>22</v>
+      </c>
+      <c r="G179" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" t="s">
+        <v>71</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C180" t="s">
+        <v>9</v>
+      </c>
+      <c r="E180" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F180" t="s">
+        <v>22</v>
+      </c>
+      <c r="G180" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" t="s">
+        <v>71</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C181" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" t="s">
+        <v>71</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C182" t="s">
+        <v>9</v>
+      </c>
+      <c r="E182" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F182">
+        <v>0.01</v>
+      </c>
+      <c r="G182" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" s="11" customFormat="1">
+      <c r="A183" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B183" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C183" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="13"/>
+      <c r="E183" s="14"/>
+      <c r="F183" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" t="s">
+        <v>74</v>
+      </c>
+      <c r="B184" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C184" t="s">
+        <v>9</v>
+      </c>
+      <c r="E184" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F184" t="s">
+        <v>69</v>
+      </c>
+      <c r="G184" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" t="s">
+        <v>74</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C185" t="s">
+        <v>9</v>
+      </c>
+      <c r="E185" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F185" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" t="s">
+        <v>74</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C186" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" t="s">
+        <v>74</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C187" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" t="s">
+        <v>74</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C188" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" t="s">
+        <v>74</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C189" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" t="s">
+        <v>74</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C190" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" t="s">
+        <v>74</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C191" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" t="s">
+        <v>74</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C192" t="s">
+        <v>9</v>
+      </c>
+      <c r="E192" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F192" t="s">
+        <v>22</v>
+      </c>
+      <c r="G192" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" t="s">
+        <v>74</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C193" t="s">
+        <v>9</v>
+      </c>
+      <c r="E193" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F193" t="s">
+        <v>22</v>
+      </c>
+      <c r="G193" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" t="s">
+        <v>74</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C194" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" t="s">
+        <v>74</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C195" t="s">
+        <v>9</v>
+      </c>
+      <c r="E195" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F195">
+        <v>0.01</v>
+      </c>
+      <c r="G195" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" s="11" customFormat="1">
+      <c r="A196" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B196" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C196" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="13"/>
+      <c r="E196" s="14"/>
+      <c r="F196" s="11" t="s">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006131D81E7FE36E44885B3A04523FCF5D" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3c9ab67dcfa560232a36bfe42a1cf3da">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71842362-ab5d-46b4-b35f-08dc9c6328ce" xmlns:ns3="8def90a7-5747-4395-b698-a599996d7912" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85c6a7f5c224f550ecad7291476c1ef0" ns2:_="" ns3:_="">
+    <xsd:import namespace="71842362-ab5d-46b4-b35f-08dc9c6328ce"/>
+    <xsd:import namespace="8def90a7-5747-4395-b698-a599996d7912"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="71842362-ab5d-46b4-b35f-08dc9c6328ce" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="eaf58ba8-1e8d-4aec-a6f5-993f6032dc74" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="17" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="18" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="19" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8def90a7-5747-4395-b698-a599996d7912" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{790f85f4-cb36-4710-b643-af9b7c640f7d}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="8def90a7-5747-4395-b698-a599996d7912">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="20" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="21" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71842362-ab5d-46b4-b35f-08dc9c6328ce">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="8def90a7-5747-4395-b698-a599996d7912" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03B9B53E-4A61-4694-A237-D5F74F7CF0C0}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93655015-E2AD-494E-9D9F-D268EB06374F}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0193EEB5-9620-4617-A359-34533EFF1942}"/>
 </file>